--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.998902333333333</v>
+        <v>2.630712666666667</v>
       </c>
       <c r="H2">
-        <v>11.996707</v>
+        <v>7.892138000000001</v>
       </c>
       <c r="I2">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="J2">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05507833333333333</v>
+        <v>0.05351466666666666</v>
       </c>
       <c r="N2">
-        <v>0.165235</v>
+        <v>0.160544</v>
       </c>
       <c r="O2">
-        <v>0.7874745626200381</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="P2">
-        <v>0.7874745626200382</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="Q2">
-        <v>0.2202528756827778</v>
+        <v>0.1407817114524444</v>
       </c>
       <c r="R2">
-        <v>1.982275881145</v>
+        <v>1.267035403072</v>
       </c>
       <c r="S2">
-        <v>0.3900591196305411</v>
+        <v>0.1652572715329017</v>
       </c>
       <c r="T2">
-        <v>0.3900591196305412</v>
+        <v>0.1652572715329017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.998902333333333</v>
+        <v>2.630712666666667</v>
       </c>
       <c r="H3">
-        <v>11.996707</v>
+        <v>7.892138000000001</v>
       </c>
       <c r="I3">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="J3">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.01486466666666667</v>
+        <v>0.05507833333333334</v>
       </c>
       <c r="N3">
-        <v>0.044594</v>
+        <v>0.165235</v>
       </c>
       <c r="O3">
-        <v>0.2125254373799618</v>
+        <v>0.4308773485273219</v>
       </c>
       <c r="P3">
-        <v>0.2125254373799618</v>
+        <v>0.4308773485273218</v>
       </c>
       <c r="Q3">
-        <v>0.05944235021755555</v>
+        <v>0.1448952691588889</v>
       </c>
       <c r="R3">
-        <v>0.534981151958</v>
+        <v>1.30405742243</v>
       </c>
       <c r="S3">
-        <v>0.1052700479971214</v>
+        <v>0.1700859905181072</v>
       </c>
       <c r="T3">
-        <v>0.1052700479971214</v>
+        <v>0.1700859905181072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.99311</v>
+        <v>2.630712666666667</v>
       </c>
       <c r="H4">
-        <v>11.97933</v>
+        <v>7.892138000000001</v>
       </c>
       <c r="I4">
-        <v>0.4946116928284643</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="J4">
-        <v>0.4946116928284644</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05507833333333333</v>
+        <v>0.01923533333333333</v>
       </c>
       <c r="N4">
-        <v>0.165235</v>
+        <v>0.057706</v>
       </c>
       <c r="O4">
-        <v>0.7874745626200381</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="P4">
-        <v>0.7874745626200382</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="Q4">
-        <v>0.2199338436166667</v>
+        <v>0.05060263504755556</v>
       </c>
       <c r="R4">
-        <v>1.97940459255</v>
+        <v>0.4554237154280001</v>
       </c>
       <c r="S4">
-        <v>0.3894941264768516</v>
+        <v>0.05940014021749566</v>
       </c>
       <c r="T4">
-        <v>0.3894941264768517</v>
+        <v>0.05940014021749565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>11.97933</v>
       </c>
       <c r="I5">
-        <v>0.4946116928284643</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="J5">
-        <v>0.4946116928284644</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01486466666666667</v>
+        <v>0.05351466666666666</v>
       </c>
       <c r="N5">
-        <v>0.044594</v>
+        <v>0.160544</v>
       </c>
       <c r="O5">
-        <v>0.2125254373799618</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="P5">
-        <v>0.2125254373799618</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="Q5">
-        <v>0.05935624911333334</v>
+        <v>0.2136899506133333</v>
       </c>
       <c r="R5">
-        <v>0.5342062420200001</v>
+        <v>1.92320955552</v>
       </c>
       <c r="S5">
-        <v>0.1051175663516127</v>
+        <v>0.2508409496377578</v>
       </c>
       <c r="T5">
-        <v>0.1051175663516127</v>
+        <v>0.2508409496377578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.08120966666666667</v>
+        <v>3.99311</v>
       </c>
       <c r="H6">
-        <v>0.243629</v>
+        <v>11.97933</v>
       </c>
       <c r="I6">
-        <v>0.01005913954387315</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="J6">
-        <v>0.01005913954387315</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,33 +800,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05507833333333333</v>
+        <v>0.05507833333333334</v>
       </c>
       <c r="N6">
         <v>0.165235</v>
       </c>
       <c r="O6">
-        <v>0.7874745626200381</v>
+        <v>0.4308773485273219</v>
       </c>
       <c r="P6">
-        <v>0.7874745626200382</v>
+        <v>0.4308773485273218</v>
       </c>
       <c r="Q6">
-        <v>0.004472893090555556</v>
+        <v>0.2199338436166667</v>
       </c>
       <c r="R6">
-        <v>0.04025603781499999</v>
+        <v>1.97940459255</v>
       </c>
       <c r="S6">
-        <v>0.007921316512645438</v>
+        <v>0.2581703726915669</v>
       </c>
       <c r="T6">
-        <v>0.007921316512645439</v>
+        <v>0.2581703726915669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.08120966666666667</v>
+        <v>3.99311</v>
       </c>
       <c r="H7">
-        <v>0.243629</v>
+        <v>11.97933</v>
       </c>
       <c r="I7">
-        <v>0.01005913954387315</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="J7">
-        <v>0.01005913954387315</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,214 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01486466666666667</v>
+        <v>0.01923533333333333</v>
       </c>
       <c r="N7">
-        <v>0.044594</v>
+        <v>0.057706</v>
       </c>
       <c r="O7">
-        <v>0.2125254373799618</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="P7">
-        <v>0.2125254373799618</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="Q7">
-        <v>0.001207154625111111</v>
+        <v>0.07680880188666667</v>
       </c>
       <c r="R7">
-        <v>0.010864391626</v>
+        <v>0.6912792169800001</v>
       </c>
       <c r="S7">
-        <v>0.00213782303122771</v>
+        <v>0.09016237193415171</v>
       </c>
       <c r="T7">
-        <v>0.002137823031227711</v>
+        <v>0.09016237193415169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04053866666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.121616</v>
+      </c>
+      <c r="I8">
+        <v>0.00608290346801924</v>
+      </c>
+      <c r="J8">
+        <v>0.006082903468019241</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05351466666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.160544</v>
+      </c>
+      <c r="O8">
+        <v>0.4186447970585551</v>
+      </c>
+      <c r="P8">
+        <v>0.4186447970585551</v>
+      </c>
+      <c r="Q8">
+        <v>0.002169413233777778</v>
+      </c>
+      <c r="R8">
+        <v>0.019524719104</v>
+      </c>
+      <c r="S8">
+        <v>0.002546575887895696</v>
+      </c>
+      <c r="T8">
+        <v>0.002546575887895696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04053866666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.121616</v>
+      </c>
+      <c r="I9">
+        <v>0.00608290346801924</v>
+      </c>
+      <c r="J9">
+        <v>0.006082903468019241</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.05507833333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.165235</v>
+      </c>
+      <c r="O9">
+        <v>0.4308773485273219</v>
+      </c>
+      <c r="P9">
+        <v>0.4308773485273218</v>
+      </c>
+      <c r="Q9">
+        <v>0.002232802195555556</v>
+      </c>
+      <c r="R9">
+        <v>0.02009521976</v>
+      </c>
+      <c r="S9">
+        <v>0.002620985317647781</v>
+      </c>
+      <c r="T9">
+        <v>0.002620985317647781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04053866666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.121616</v>
+      </c>
+      <c r="I10">
+        <v>0.00608290346801924</v>
+      </c>
+      <c r="J10">
+        <v>0.006082903468019241</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01923533333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.057706</v>
+      </c>
+      <c r="O10">
+        <v>0.1504778544141231</v>
+      </c>
+      <c r="P10">
+        <v>0.1504778544141231</v>
+      </c>
+      <c r="Q10">
+        <v>0.0007797747662222223</v>
+      </c>
+      <c r="R10">
+        <v>0.007017972896</v>
+      </c>
+      <c r="S10">
+        <v>0.0009153422624757639</v>
+      </c>
+      <c r="T10">
+        <v>0.0009153422624757639</v>
       </c>
     </row>
   </sheetData>
